--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-17.6902860206768</t>
+          <t>0.377582561890373</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000005</t>
+          <t>1.0001</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20.6902860206768</t>
+          <t>0.877582561890373</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-13.5173641896727</t>
+          <t>-0.238570067725114</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.6902860206768</t>
+          <t>0.377582561890373</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>34.2076502103495</t>
+          <t>0.639012494165259</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3.51949495555342</t>
+          <t>0.163672606517076</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.5173641896727</t>
+          <t>0.238570067725114</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37.7271451659029</t>
+          <t>0.802685100682335</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.685513898070205</t>
+          <t>-0.107907073894329</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.51949495555342</t>
+          <t>0.163672606517076</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38.4126590639731</t>
+          <t>0.694778026788006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.126050414764144</t>
+          <t>0.0734178044940099</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.685513898070205</t>
+          <t>0.107907073894329</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>38.5387094787372</t>
+          <t>0.768195831282016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.0229327615412593</t>
+          <t>-0.049030385339597</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.126050414764144</t>
+          <t>0.0734178044940099</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38.5616422402785</t>
+          <t>0.719165445942419</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.0041641661015425</t>
+          <t>0.0331903134791079</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0229327615412629</t>
+          <t>0.049030385339597</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>38.56580640638</t>
+          <t>0.752355759421527</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.0007558700112753</t>
+          <t>-0.0222746962837037</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0041641661015461</t>
+          <t>0.0331903134791079</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38.5665622763913</t>
+          <t>0.730081063137823</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.000137195062706</t>
+          <t>0.0150392782136168</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0007558700112753</t>
+          <t>0.0222746962837037</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38.566699471454</t>
+          <t>0.74512034135144</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-2.49014605948616e-05</t>
+          <t>-0.010114032336597</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.000137195062706</t>
+          <t>0.0150392782136168</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>38.5667243729146</t>
+          <t>0.735006309014843</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-4.51970664983037e-06</t>
+          <t>0.0068202136284027</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.49014605913089e-05</t>
+          <t>0.010114032336597</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,215 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>38.5667288926213</t>
+          <t>0.741826522643246</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-8.20343057483797e-07</t>
+          <t>-0.0045907972010145</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.51970664983037e-06</t>
+          <t>0.0068202136284027</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.737235725442231</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.0030939264360317</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.0045907972010145</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.740329651878263</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-0.0020834135460297</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.0030939264360317</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.738246238332233</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.0014037244374277</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.0020834135460297</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.739649962769661</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-0.0009454234126778</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.0014037244374277</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.738704539356983</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.0006369129242267</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.0009454234126778</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.73934145228121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-0.0004290029491069</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.0006369129242267</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.738912449332103</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.0002889948036959</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.0004290029491069</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.739201444135799</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-0.000194664354986</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.0002889948036959</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.739006779780813</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.0001311309814798</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.000194664354986</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.377582561890373</t>
+          <t>-9.85203026391962</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.0001</t>
+          <t>1.0000005</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.877582561890373</t>
+          <t>11.8520302639196</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.238570067725114</t>
+          <t>-12.4554640184409</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.377582561890373</t>
+          <t>9.85203026391962</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.639012494165259</t>
+          <t>24.3074942823605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.163672606517076</t>
+          <t>-5.02799868400258</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.238570067725114</t>
+          <t>12.4554640184409</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.802685100682335</t>
+          <t>29.3354929663631</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.107907073894329</t>
+          <t>-1.31609406230989</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.163672606517076</t>
+          <t>5.02799868400258</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.694778026788006</t>
+          <t>30.651587028673</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0734178044940099</t>
+          <t>-0.307204052149675</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.107907073894329</t>
+          <t>1.31609406230989</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.768195831282016</t>
+          <t>30.9587910808226</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.049030385339597</t>
+          <t>-0.0698079204520248</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0734178044940099</t>
+          <t>0.307204052149675</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.719165445942419</t>
+          <t>31.0285990012747</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0331903134791079</t>
+          <t>-0.0157662921150674</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.049030385339597</t>
+          <t>0.0698079204520248</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.752355759421527</t>
+          <t>31.0443652933897</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.0222746962837037</t>
+          <t>-0.0035559457626313</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0331903134791079</t>
+          <t>0.0157662921150674</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.730081063137823</t>
+          <t>31.0479212391524</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0150392782136168</t>
+          <t>-0.0008017620788542</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0222746962837037</t>
+          <t>0.0035559457626313</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.74512034135144</t>
+          <t>31.0487230012312</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.010114032336597</t>
+          <t>-0.0001807612833495</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0150392782136168</t>
+          <t>0.0008017620788542</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.735006309014843</t>
+          <t>31.0489037625146</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0068202136284027</t>
+          <t>-4.07528934509571e-05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.010114032336597</t>
+          <t>0.0001807612833495</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.741826522643246</t>
+          <t>31.048944515408</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.0045907972010145</t>
+          <t>-9.18776614966532e-06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0068202136284027</t>
+          <t>4.07528934509571e-05</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.737235725442231</t>
+          <t>31.0489537031742</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0030939264360317</t>
+          <t>-2.0713861452748e-06</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0045907972010145</t>
+          <t>9.18776614966532e-06</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.740329651878263</t>
+          <t>31.0489557745603</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.0020834135460297</t>
+          <t>-4.66994883652205e-07</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0030939264360317</t>
+          <t>2.0713861452748e-06</t>
         </is>
       </c>
     </row>
@@ -771,149 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.738246238332233</t>
+          <t>31.0489562415552</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0014037244374277</t>
+          <t>-1.05284190254906e-07</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0020834135460297</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0.739649962769661</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>-0.0009454234126778</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0.0014037244374277</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0.738704539356983</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0.0006369129242267</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.0009454234126778</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0.73934145228121</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-0.0004290029491069</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.0006369129242267</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0.738912449332103</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0.0002889948036959</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.0004290029491069</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0.739201444135799</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>-0.000194664354986</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>0.0002889948036959</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>0.739006779780813</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>0.0001311309814798</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.000194664354986</t>
+          <t>4.66994883652205e-07</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-9.85203026391962</t>
+          <t>-17.6902860206768</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.0000005</t>
+          <t>1.000005</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11.8520302639196</t>
+          <t>20.6902860206768</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-12.4554640184409</t>
+          <t>-13.5173641896727</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.85203026391962</t>
+          <t>0.855004421060107</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24.3074942823605</t>
+          <t>34.2076502103495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-5.02799868400258</t>
+          <t>-3.51949495555342</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.4554640184409</t>
+          <t>0.395156174322171</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29.3354929663631</t>
+          <t>37.7271451659029</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.31609406230989</t>
+          <t>-0.685513898070205</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.02799868400258</t>
+          <t>0.0932881335196885</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30.651587028673</t>
+          <t>38.4126590639731</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.307204052149675</t>
+          <t>-0.126050414764144</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.31609406230989</t>
+          <t>0.0178460412471977</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30.9587910808226</t>
+          <t>38.5387094787372</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.0698079204520248</t>
+          <t>-0.0229327615412593</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.307204052149675</t>
+          <t>0.0032707482027567</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31.0285990012747</t>
+          <t>38.5616422402785</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.0157662921150674</t>
+          <t>-0.0041641661015425</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0698079204520248</t>
+          <t>0.0005947039651052</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31.0443652933897</t>
+          <t>38.56580640638</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.0035559457626313</t>
+          <t>-0.0007558700112753</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0157662921150674</t>
+          <t>0.0001079756003975</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31.0479212391524</t>
+          <t>38.5665622763913</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.0008017620788542</t>
+          <t>-0.000137195062706</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0035559457626313</t>
+          <t>1.9599102607546e-05</t>
         </is>
       </c>
     </row>
@@ -661,127 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31.0487230012312</t>
+          <t>38.566699471454</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.0001807612833495</t>
+          <t>-2.49014605948616e-05</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0008017620788542</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>31.0489037625146</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>-4.07528934509571e-05</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.0001807612833495</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>31.048944515408</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>-9.18776614966532e-06</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>4.07528934509571e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>31.0489537031742</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-2.0713861452748e-06</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.18776614966532e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>31.0489557745603</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-4.66994883652205e-07</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.0713861452748e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>31.0489562415552</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-1.05284190254906e-07</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.66994883652205e-07</t>
+          <t>3.55734518603515e-06</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,7 +495,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.855004421060107</t>
+          <t>17.6902860206768</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.395156174322171</t>
+          <t>13.5173641896727</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.0932881335196885</t>
+          <t>3.51949495555342</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.0178460412471977</t>
+          <t>0.685513898070205</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0032707482027567</t>
+          <t>0.126050414764144</t>
         </is>
       </c>
     </row>
@@ -605,7 +605,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0005947039651052</t>
+          <t>0.0229327615412629</t>
         </is>
       </c>
     </row>
@@ -627,7 +627,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0001079756003975</t>
+          <t>0.0041641661015461</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1.9599102607546e-05</t>
+          <t>0.0007558700112753</t>
         </is>
       </c>
     </row>
@@ -671,7 +671,51 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.55734518603515e-06</t>
+          <t>0.000137195062706</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>38.5667243729146</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-4.51970664983037e-06</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49014605913089e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>38.5667288926213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-8.20343057483797e-07</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.51970664983037e-06</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>2.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-17.6902860206768</t>
+          <t>-9.85203026391962</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000005</t>
+          <t>1.0000005</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20.6902860206768</t>
+          <t>11.8520302639196</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-13.5173641896727</t>
+          <t>-12.4554640184409</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.6902860206768</t>
+          <t>9.85203026391962</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>34.2076502103495</t>
+          <t>24.3074942823605</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3.51949495555342</t>
+          <t>-5.02799868400258</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.5173641896727</t>
+          <t>12.4554640184409</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37.7271451659029</t>
+          <t>29.3354929663631</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.685513898070205</t>
+          <t>-1.31609406230989</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.51949495555342</t>
+          <t>5.02799868400258</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38.4126590639731</t>
+          <t>30.651587028673</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.126050414764144</t>
+          <t>-0.307204052149675</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.685513898070205</t>
+          <t>1.31609406230989</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>38.5387094787372</t>
+          <t>30.9587910808226</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.0229327615412593</t>
+          <t>-0.0698079204520248</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.126050414764144</t>
+          <t>0.307204052149675</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38.5616422402785</t>
+          <t>31.0285990012747</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.0041641661015425</t>
+          <t>-0.0157662921150674</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0229327615412629</t>
+          <t>0.0698079204520248</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>38.56580640638</t>
+          <t>31.0443652933897</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.0007558700112753</t>
+          <t>-0.0035559457626313</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0041641661015461</t>
+          <t>0.0157662921150674</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38.5665622763913</t>
+          <t>31.0479212391524</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.000137195062706</t>
+          <t>-0.0008017620788542</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0007558700112753</t>
+          <t>0.0035559457626313</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38.566699471454</t>
+          <t>31.0487230012312</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-2.49014605948616e-05</t>
+          <t>-0.0001807612833495</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.000137195062706</t>
+          <t>0.0008017620788542</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>38.5667243729146</t>
+          <t>31.0489037625146</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-4.51970664983037e-06</t>
+          <t>-4.07528934509571e-05</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.49014605913089e-05</t>
+          <t>0.0001807612833495</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,83 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>38.5667288926213</t>
+          <t>31.048944515408</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-8.20343057483797e-07</t>
+          <t>-9.18776614966532e-06</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.51970664983037e-06</t>
+          <t>4.07528934509571e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>31.0489537031742</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>-2.0713861452748e-06</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.18776614966532e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>31.0489557745603</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-4.66994883652205e-07</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.0713861452748e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>31.0489562415552</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>-1.05284190254906e-07</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.66994883652205e-07</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2.0</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-9.85203026391962</t>
+          <t>-65.0</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.0000005</t>
+          <t>1.000005</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>11.8520302639196</t>
+          <t>20.6902860206768</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-12.4554640184409</t>
+          <t>-2862815909955.03</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.85203026391962</t>
+          <t>17.6902860206768</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>24.3074942823605</t>
+          <t>34.2076502103495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-5.02799868400258</t>
+          <t>-3.93602265055717e+20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.4554640184409</t>
+          <t>13.5173641896727</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>29.3354929663631</t>
+          <t>37.7271451659029</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-1.31609406230989</t>
+          <t>-5.17612423364357e+22</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>5.02799868400258</t>
+          <t>3.51949495555342</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>30.651587028673</t>
+          <t>38.4126590639731</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-0.307204052149675</t>
+          <t>-1.33882922202356e+23</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.31609406230989</t>
+          <t>0.685513898070205</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>30.9587910808226</t>
+          <t>38.5387094787372</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.0698079204520248</t>
+          <t>-1.59446538199507e+23</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.307204052149675</t>
+          <t>0.126050414764144</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>31.0285990012747</t>
+          <t>38.5616422402785</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-0.0157662921150674</t>
+          <t>-1.64597029342916e+23</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0698079204520248</t>
+          <t>0.0229327615412629</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>31.0443652933897</t>
+          <t>38.56580640638</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.0035559457626313</t>
+          <t>-1.65549956350725e+23</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0157662921150674</t>
+          <t>0.0041641661015461</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>31.0479212391524</t>
+          <t>38.5665622763913</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-0.0008017620788542</t>
+          <t>-1.65723520171509e+23</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0035559457626313</t>
+          <t>0.0007558700112753</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31.0487230012312</t>
+          <t>38.566699471454</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.0001807612833495</t>
+          <t>-1.65755042579763e+23</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0008017620788542</t>
+          <t>0.000137195062706</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>31.0489037625146</t>
+          <t>38.5667243729146</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-4.07528934509571e-05</t>
+          <t>-1.65760764667644e+23</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.0001807612833495</t>
+          <t>2.49014605913089e-05</t>
         </is>
       </c>
     </row>
@@ -705,83 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>31.048944515408</t>
+          <t>38.5667288926213</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-9.18776614966532e-06</t>
+          <t>-1.65761803268812e+23</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.07528934509571e-05</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>31.0489537031742</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>-2.0713861452748e-06</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>9.18776614966532e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>31.0489557745603</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-4.66994883652205e-07</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2.0713861452748e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>31.0489562415552</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>-1.05284190254906e-07</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.66994883652205e-07</t>
+          <t>4.51970664983037e-06</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>0.5</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-65.0</t>
+          <t>0.377582561890373</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000005</t>
+          <t>1.000001</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>20.6902860206768</t>
+          <t>0.877582561890373</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-2862815909955.03</t>
+          <t>-0.238570067725114</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>17.6902860206768</t>
+          <t>0.377582561890373</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>34.2076502103495</t>
+          <t>0.639012494165259</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>-3.93602265055717e+20</t>
+          <t>0.163672606517076</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.5173641896727</t>
+          <t>0.238570067725114</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>37.7271451659029</t>
+          <t>0.802685100682335</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-5.17612423364357e+22</t>
+          <t>-0.107907073894329</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3.51949495555342</t>
+          <t>0.163672606517076</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>38.4126590639731</t>
+          <t>0.694778026788006</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>-1.33882922202356e+23</t>
+          <t>0.0734178044940099</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.685513898070205</t>
+          <t>0.107907073894329</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>38.5387094787372</t>
+          <t>0.768195831282016</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-1.59446538199507e+23</t>
+          <t>-0.049030385339597</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.126050414764144</t>
+          <t>0.0734178044940099</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>38.5616422402785</t>
+          <t>0.719165445942419</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-1.64597029342916e+23</t>
+          <t>0.0331903134791079</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.0229327615412629</t>
+          <t>0.049030385339597</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>38.56580640638</t>
+          <t>0.752355759421527</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-1.65549956350725e+23</t>
+          <t>-0.0222746962837037</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0041641661015461</t>
+          <t>0.0331903134791079</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>38.5665622763913</t>
+          <t>0.730081063137823</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>-1.65723520171509e+23</t>
+          <t>0.0150392782136168</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0007558700112753</t>
+          <t>0.0222746962837037</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>38.566699471454</t>
+          <t>0.74512034135144</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-1.65755042579763e+23</t>
+          <t>-0.010114032336597</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.000137195062706</t>
+          <t>0.0150392782136168</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>38.5667243729146</t>
+          <t>0.735006309014843</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1.65760764667644e+23</t>
+          <t>0.0068202136284027</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2.49014605913089e-05</t>
+          <t>0.010114032336597</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,523 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>38.5667288926213</t>
+          <t>0.741826522643246</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-1.65761803268812e+23</t>
+          <t>-0.0045907972010145</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>4.51970664983037e-06</t>
+          <t>0.0068202136284027</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0.737235725442231</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0.0030939264360317</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.0045907972010145</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0.740329651878263</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>-0.0020834135460297</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.0030939264360317</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>0.738246238332233</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0.0014037244374277</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.0020834135460297</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0.739649962769661</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>-0.0009454234126778</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.0014037244374277</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>0.738704539356983</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.0006369129242267</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.0009454234126778</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0.73934145228121</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>-0.0004290029491069</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.0006369129242267</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0.738912449332103</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0.0002889948036959</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.0004290029491069</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0.739201444135799</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>-0.000194664354986</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.0002889948036959</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>0.739006779780813</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>0.0001311309814798</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.000194664354986</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>0.739137910762293</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-8.83301670843162e-05</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.0001311309814798</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>0.739049580595209</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>5.95008253181373e-05</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.83301670843162e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>0.739109081420527</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>-4.0080216515137e-05</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.95008253181373e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>0.739069001204012</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2.69986317431581e-05</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.0080216515137e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>0.739095999835755</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>-1.8186550579502e-05</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.69986317431581e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>0.739077813285175</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>1.22507030757557e-05</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.8186550579502e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>0.739090063988251</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>-8.25221014166821e-06</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.22507030757557e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>0.739081811778109</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5.55879292651884e-06</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.25221014166821e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>0.739087370571036</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>-3.74446755613267e-06</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>5.55879292651884e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>0.73908362610348</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2.52231939923409e-06</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>3.74446755613267e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>0.739086148422879</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>-1.69906423030941e-06</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.52231939923409e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>0.739084449358649</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>1.14451031196783e-06</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.69906423030941e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>0.739085593868961</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>-7.70955819295871e-07</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.14451031196783e-06</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>0.739084822913141</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>5.19325156767003e-07</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.70955819295871e-07</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,17 +463,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.377582561890373</t>
+          <t>-17.6902860206768+0i</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.000001</t>
+          <t>1.000005</t>
         </is>
       </c>
     </row>
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.877582561890373</t>
+          <t>-0.989992496600445</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-0.238570067725114</t>
+          <t>-13.9195870910846+21.9911485751286i</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.377582561890373</t>
+          <t>3.98999249660045</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.639012494165259</t>
+          <t>0.548696133603097</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.163672606517076</t>
+          <t>-8.2498304965278+0i</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.238570067725114</t>
+          <t>1.53868863020354</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.802685100682335</t>
+          <t>0.853205311505747</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>-0.107907073894329</t>
+          <t>-11.0355092194186+0i</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.163672606517076</t>
+          <t>0.30450917790265</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.694778026788006</t>
+          <t>0.657571671944072</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0734178044940099</t>
+          <t>-9.40801772927208+0i</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.107907073894329</t>
+          <t>0.195633639561676</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.768195831282016</t>
+          <t>0.791478749684416</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>-0.049030385339597</t>
+          <t>-10.5715555130722+0i</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.0734178044940099</t>
+          <t>0.133907077740345</t>
         </is>
       </c>
     </row>
@@ -595,17 +595,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.719165445942419</t>
+          <t>0.702794111808299</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0331903134791079</t>
+          <t>-9.82836678193395+0i</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.049030385339597</t>
+          <t>0.0886846378761176</t>
         </is>
       </c>
     </row>
@@ -617,17 +617,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.752355759421527</t>
+          <t>0.763039187796815</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-0.0222746962837037</t>
+          <t>-10.3438395901589+0i</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.0331903134791079</t>
+          <t>0.0602450759885169</t>
         </is>
       </c>
     </row>
@@ -639,17 +639,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.730081063137823</t>
+          <t>0.722738904784978</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.0150392782136168</t>
+          <t>-10.0043103480808+0i</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.0222746962837037</t>
+          <t>0.0403002830118379</t>
         </is>
       </c>
     </row>
@@ -661,17 +661,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0.74512034135144</t>
+          <t>0.749996919694713</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>-0.010114032336597</t>
+          <t>-10.2361998235678+0i</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.0150392782136168</t>
+          <t>0.0272580149097357</t>
         </is>
       </c>
     </row>
@@ -683,17 +683,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0.735006309014843</t>
+          <t>0.731690968525826</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.0068202136284027</t>
+          <t>-10.0815298333289+0i</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.010114032336597</t>
+          <t>0.0183059511688874</t>
         </is>
       </c>
     </row>
@@ -705,17 +705,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.741826522643246</t>
+          <t>0.74404568195254</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-0.0045907972010145</t>
+          <t>-10.1863843991265+0i</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.0068202136284027</t>
+          <t>0.0123547134267138</t>
         </is>
       </c>
     </row>
@@ -727,17 +727,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.737235725442231</t>
+          <t>0.735734568286841</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0.0030939264360317</t>
+          <t>-10.116064368212+0i</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.0045907972010145</t>
+          <t>0.0083111136656982</t>
         </is>
       </c>
     </row>
@@ -749,17 +749,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0.740329651878263</t>
+          <t>0.741337961246103</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-0.0020834135460297</t>
+          <t>-10.1635713514757+0i</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.0030939264360317</t>
+          <t>0.0056033929592619</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0.738246238332233</t>
+          <t>0.737565726923219</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0.0014037244374277</t>
+          <t>-10.131633758665+0i</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.0020834135460297</t>
+          <t>0.0037722343228845</t>
         </is>
       </c>
     </row>
@@ -793,17 +793,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0.739649962769661</t>
+          <t>0.74010777005269</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-0.0009454234126778</t>
+          <t>-10.1531759526778+0i</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.0014037244374277</t>
+          <t>0.0025420431294717</t>
         </is>
       </c>
     </row>
@@ -815,17 +815,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.738704539356983</t>
+          <t>0.738395886397535</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0.0006369129242267</t>
+          <t>-10.1386779461663+0i</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.0009454234126778</t>
+          <t>0.0017118836551554</t>
         </is>
       </c>
     </row>
@@ -837,17 +837,17 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.73934145228121</t>
+          <t>0.73954924257051</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-0.0004290029491069</t>
+          <t>-10.1484498871393+0i</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.0006369129242267</t>
+          <t>0.0011533561729746</t>
         </is>
       </c>
     </row>
@@ -859,17 +859,17 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.738912449332103</t>
+          <t>0.738772423983223</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0.0002889948036959</t>
+          <t>-10.1418700786345+0i</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>0.0004290029491069</t>
+          <t>0.0007768185872866</t>
         </is>
       </c>
     </row>
@@ -881,17 +881,17 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0.739201444135799</t>
+          <t>0.739295741775515</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-0.000194664354986</t>
+          <t>-10.1463035345337+0i</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.0002889948036959</t>
+          <t>0.000523317792292</t>
         </is>
       </c>
     </row>
@@ -903,17 +903,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0.739006779780813</t>
+          <t>0.738943248365088</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0.0001311309814798</t>
+          <t>-10.1433176585245+0i</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.000194664354986</t>
+          <t>0.0003524934104268</t>
         </is>
       </c>
     </row>
@@ -925,17 +925,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0.739137910762293</t>
+          <t>0.739180701117231</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>-8.83301670843162e-05</t>
+          <t>-10.1453292313428+0i</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.0001311309814798</t>
+          <t>0.000237452752143</t>
         </is>
       </c>
     </row>
@@ -947,17 +947,17 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0.739049580595209</t>
+          <t>0.739020754151705</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>5.95008253181373e-05</t>
+          <t>-10.1439743255674+0i</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>8.83301670843162e-05</t>
+          <t>0.0001599469655263</t>
         </is>
       </c>
     </row>
@@ -969,17 +969,17 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0.739109081420527</t>
+          <t>0.739128498195072</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>-4.0080216515137e-05</t>
+          <t>-10.1448870580472+0i</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>5.95008253181373e-05</t>
+          <t>0.0001077440433672</t>
         </is>
       </c>
     </row>
@@ -991,17 +991,17 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0.739069001204012</t>
+          <t>0.739055921348123</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2.69986317431581e-05</t>
+          <t>-10.144272253912+0i</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>4.0080216515137e-05</t>
+          <t>7.25768469488353e-05</t>
         </is>
       </c>
     </row>
@@ -1013,17 +1013,17 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0.739095999835755</t>
+          <t>0.739104810364846</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>-1.8186550579502e-05</t>
+          <t>-10.1446864040085+0i</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.69986317431581e-05</t>
+          <t>4.88890167227307e-05</t>
         </is>
       </c>
     </row>
@@ -1035,17 +1035,17 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0.739077813285175</t>
+          <t>0.73907187830735</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>1.22507030757557e-05</t>
+          <t>-10.144407432348+0i</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1.8186550579502e-05</t>
+          <t>3.29320574959935e-05</t>
         </is>
       </c>
     </row>
@@ -1057,17 +1057,17 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0.739090063988251</t>
+          <t>0.739094061815581</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>-8.25221014166821e-06</t>
+          <t>-10.1445953532041+0i</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.22507030757557e-05</t>
+          <t>2.21835082312438e-05</t>
         </is>
       </c>
     </row>
@@ -1079,17 +1079,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0.739081811778109</t>
+          <t>0.739079118773054</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>5.55879292651884e-06</t>
+          <t>-10.1444687684486+0i</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>8.25221014166821e-06</t>
+          <t>1.49430425276931e-05</t>
         </is>
       </c>
     </row>
@@ -1101,17 +1101,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0.739087370571036</t>
+          <t>0.739089184602345</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>-3.74446755613267e-06</t>
+          <t>-10.1445540379135+0i</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>5.55879292651884e-06</t>
+          <t>1.00658292914169e-05</t>
         </is>
       </c>
     </row>
@@ -1123,17 +1123,17 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0.73908362610348</t>
+          <t>0.739082404145953</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2.52231939923409e-06</t>
+          <t>-10.1444965995808+0i</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3.74446755613267e-06</t>
+          <t>6.78045639235236e-06</t>
         </is>
       </c>
     </row>
@@ -1145,83 +1145,17 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0.739086148422879</t>
+          <t>0.739086971546255</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>-1.69906423030941e-06</t>
+          <t>-10.1445352908255+0i</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2.52231939923409e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>0.739084449358649</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>1.14451031196783e-06</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.69906423030941e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>0.739085593868961</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>-7.70955819295871e-07</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>1.14451031196783e-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>0.739084822913141</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>5.19325156767003e-07</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>7.70955819295871e-07</t>
+          <t>4.56740030252423e-06</t>
         </is>
       </c>
     </row>

--- a/app/tables/tabla_pf.xlsx
+++ b/app/tables/tabla_pf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>4.5</t>
+          <t>3.0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-0.21079579943078</t>
+          <t>-17.6902860206768</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -485,17 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-501.75</t>
+          <t>20.6902860206768</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.617823529558998</t>
+          <t>-13.5173641896727</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>506.25</t>
+          <t>17.6902860206768</t>
         </is>
       </c>
     </row>
@@ -507,17 +507,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>251743.0625</t>
+          <t>34.2076502103495</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.573534286867683</t>
+          <t>-3.51949495555342</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>252244.8125</t>
+          <t>13.5173641896727</t>
         </is>
       </c>
     </row>
@@ -529,17 +529,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>-inf</t>
+          <t>37.7271451659029</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.685513898070205</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>3.51949495555342</t>
         </is>
       </c>
     </row>
@@ -551,17 +551,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>38.4126590639731</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.126050414764144</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>inf</t>
+          <t>0.685513898070205</t>
         </is>
       </c>
     </row>
@@ -573,17 +573,149 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>38.5387094787372</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>-0.0229327615412593</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>0.126050414764144</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>38.5616422402785</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>-0.0041641661015425</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.0229327615412629</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>38.56580640638</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>-0.0007558700112753</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.0041641661015461</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>38.5665622763913</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>-0.000137195062706</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.0007558700112753</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>38.566699471454</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>-2.49014605948616e-05</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.000137195062706</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>38.5667243729146</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>-4.51970664983037e-06</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.49014605913089e-05</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>38.5667288926213</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>-8.20343057483797e-07</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.51970664983037e-06</t>
         </is>
       </c>
     </row>
